--- a/Day3/homework/data.xlsx
+++ b/Day3/homework/data.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/Desktop/PycharmProjects/test/exercise/excelExercise/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF21AAC-91FC-7F43-9F7B-89005C0500EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16260" activeTab="1" xr2:uid="{FC570698-C982-A641-BD42-B6CB7EC0E527}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,65 +57,67 @@
     <t>2</t>
   </si>
   <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/logout/json</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>expect1</t>
+  </si>
+  <si>
+    <t>real1</t>
+  </si>
+  <si>
+    <t>status1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>{"username":"lijingying","password":"123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"lijingying"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"lijingying02","password":"123456","repassword":"123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.wanandroid.com/user/register</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/user/logout/json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>expect1</t>
-  </si>
-  <si>
-    <t>real1</t>
-  </si>
-  <si>
-    <t>status1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>{"username":"liangchao03","password":"123456","repassword":"123456"}</t>
-  </si>
-  <si>
-    <t>{"username":"liangchao"}</t>
-  </si>
-  <si>
-    <t>{"username":"lijingying","password":"123456"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,282 +495,282 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E30C7-701E-044D-83B4-84E855E20035}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
-    <col min="5" max="257" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5" max="257" width="8.875" style="2" customWidth="1"/>
     <col min="258" max="258" width="37.5" style="2" customWidth="1"/>
-    <col min="259" max="259" width="16.1640625" style="2" customWidth="1"/>
+    <col min="259" max="259" width="16.125" style="2" customWidth="1"/>
     <col min="260" max="260" width="17.5" style="2" customWidth="1"/>
-    <col min="261" max="513" width="8.83203125" style="2" customWidth="1"/>
+    <col min="261" max="513" width="8.875" style="2" customWidth="1"/>
     <col min="514" max="514" width="37.5" style="2" customWidth="1"/>
-    <col min="515" max="515" width="16.1640625" style="2" customWidth="1"/>
+    <col min="515" max="515" width="16.125" style="2" customWidth="1"/>
     <col min="516" max="516" width="17.5" style="2" customWidth="1"/>
-    <col min="517" max="769" width="8.83203125" style="2" customWidth="1"/>
+    <col min="517" max="769" width="8.875" style="2" customWidth="1"/>
     <col min="770" max="770" width="37.5" style="2" customWidth="1"/>
-    <col min="771" max="771" width="16.1640625" style="2" customWidth="1"/>
+    <col min="771" max="771" width="16.125" style="2" customWidth="1"/>
     <col min="772" max="772" width="17.5" style="2" customWidth="1"/>
-    <col min="773" max="1025" width="8.83203125" style="2" customWidth="1"/>
+    <col min="773" max="1025" width="8.875" style="2" customWidth="1"/>
     <col min="1026" max="1026" width="37.5" style="2" customWidth="1"/>
-    <col min="1027" max="1027" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1027" max="1027" width="16.125" style="2" customWidth="1"/>
     <col min="1028" max="1028" width="17.5" style="2" customWidth="1"/>
-    <col min="1029" max="1281" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1029" max="1281" width="8.875" style="2" customWidth="1"/>
     <col min="1282" max="1282" width="37.5" style="2" customWidth="1"/>
-    <col min="1283" max="1283" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1283" max="1283" width="16.125" style="2" customWidth="1"/>
     <col min="1284" max="1284" width="17.5" style="2" customWidth="1"/>
-    <col min="1285" max="1537" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1285" max="1537" width="8.875" style="2" customWidth="1"/>
     <col min="1538" max="1538" width="37.5" style="2" customWidth="1"/>
-    <col min="1539" max="1539" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1539" max="1539" width="16.125" style="2" customWidth="1"/>
     <col min="1540" max="1540" width="17.5" style="2" customWidth="1"/>
-    <col min="1541" max="1793" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1541" max="1793" width="8.875" style="2" customWidth="1"/>
     <col min="1794" max="1794" width="37.5" style="2" customWidth="1"/>
-    <col min="1795" max="1795" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1795" max="1795" width="16.125" style="2" customWidth="1"/>
     <col min="1796" max="1796" width="17.5" style="2" customWidth="1"/>
-    <col min="1797" max="2049" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1797" max="2049" width="8.875" style="2" customWidth="1"/>
     <col min="2050" max="2050" width="37.5" style="2" customWidth="1"/>
-    <col min="2051" max="2051" width="16.1640625" style="2" customWidth="1"/>
+    <col min="2051" max="2051" width="16.125" style="2" customWidth="1"/>
     <col min="2052" max="2052" width="17.5" style="2" customWidth="1"/>
-    <col min="2053" max="2305" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2053" max="2305" width="8.875" style="2" customWidth="1"/>
     <col min="2306" max="2306" width="37.5" style="2" customWidth="1"/>
-    <col min="2307" max="2307" width="16.1640625" style="2" customWidth="1"/>
+    <col min="2307" max="2307" width="16.125" style="2" customWidth="1"/>
     <col min="2308" max="2308" width="17.5" style="2" customWidth="1"/>
-    <col min="2309" max="2561" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2309" max="2561" width="8.875" style="2" customWidth="1"/>
     <col min="2562" max="2562" width="37.5" style="2" customWidth="1"/>
-    <col min="2563" max="2563" width="16.1640625" style="2" customWidth="1"/>
+    <col min="2563" max="2563" width="16.125" style="2" customWidth="1"/>
     <col min="2564" max="2564" width="17.5" style="2" customWidth="1"/>
-    <col min="2565" max="2817" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2565" max="2817" width="8.875" style="2" customWidth="1"/>
     <col min="2818" max="2818" width="37.5" style="2" customWidth="1"/>
-    <col min="2819" max="2819" width="16.1640625" style="2" customWidth="1"/>
+    <col min="2819" max="2819" width="16.125" style="2" customWidth="1"/>
     <col min="2820" max="2820" width="17.5" style="2" customWidth="1"/>
-    <col min="2821" max="3073" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2821" max="3073" width="8.875" style="2" customWidth="1"/>
     <col min="3074" max="3074" width="37.5" style="2" customWidth="1"/>
-    <col min="3075" max="3075" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3075" max="3075" width="16.125" style="2" customWidth="1"/>
     <col min="3076" max="3076" width="17.5" style="2" customWidth="1"/>
-    <col min="3077" max="3329" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3077" max="3329" width="8.875" style="2" customWidth="1"/>
     <col min="3330" max="3330" width="37.5" style="2" customWidth="1"/>
-    <col min="3331" max="3331" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3331" max="3331" width="16.125" style="2" customWidth="1"/>
     <col min="3332" max="3332" width="17.5" style="2" customWidth="1"/>
-    <col min="3333" max="3585" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3333" max="3585" width="8.875" style="2" customWidth="1"/>
     <col min="3586" max="3586" width="37.5" style="2" customWidth="1"/>
-    <col min="3587" max="3587" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3587" max="3587" width="16.125" style="2" customWidth="1"/>
     <col min="3588" max="3588" width="17.5" style="2" customWidth="1"/>
-    <col min="3589" max="3841" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3589" max="3841" width="8.875" style="2" customWidth="1"/>
     <col min="3842" max="3842" width="37.5" style="2" customWidth="1"/>
-    <col min="3843" max="3843" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3843" max="3843" width="16.125" style="2" customWidth="1"/>
     <col min="3844" max="3844" width="17.5" style="2" customWidth="1"/>
-    <col min="3845" max="4097" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3845" max="4097" width="8.875" style="2" customWidth="1"/>
     <col min="4098" max="4098" width="37.5" style="2" customWidth="1"/>
-    <col min="4099" max="4099" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4099" max="4099" width="16.125" style="2" customWidth="1"/>
     <col min="4100" max="4100" width="17.5" style="2" customWidth="1"/>
-    <col min="4101" max="4353" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4101" max="4353" width="8.875" style="2" customWidth="1"/>
     <col min="4354" max="4354" width="37.5" style="2" customWidth="1"/>
-    <col min="4355" max="4355" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4355" max="4355" width="16.125" style="2" customWidth="1"/>
     <col min="4356" max="4356" width="17.5" style="2" customWidth="1"/>
-    <col min="4357" max="4609" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4357" max="4609" width="8.875" style="2" customWidth="1"/>
     <col min="4610" max="4610" width="37.5" style="2" customWidth="1"/>
-    <col min="4611" max="4611" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4611" max="4611" width="16.125" style="2" customWidth="1"/>
     <col min="4612" max="4612" width="17.5" style="2" customWidth="1"/>
-    <col min="4613" max="4865" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4613" max="4865" width="8.875" style="2" customWidth="1"/>
     <col min="4866" max="4866" width="37.5" style="2" customWidth="1"/>
-    <col min="4867" max="4867" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4867" max="4867" width="16.125" style="2" customWidth="1"/>
     <col min="4868" max="4868" width="17.5" style="2" customWidth="1"/>
-    <col min="4869" max="5121" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4869" max="5121" width="8.875" style="2" customWidth="1"/>
     <col min="5122" max="5122" width="37.5" style="2" customWidth="1"/>
-    <col min="5123" max="5123" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5123" max="5123" width="16.125" style="2" customWidth="1"/>
     <col min="5124" max="5124" width="17.5" style="2" customWidth="1"/>
-    <col min="5125" max="5377" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5125" max="5377" width="8.875" style="2" customWidth="1"/>
     <col min="5378" max="5378" width="37.5" style="2" customWidth="1"/>
-    <col min="5379" max="5379" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5379" max="5379" width="16.125" style="2" customWidth="1"/>
     <col min="5380" max="5380" width="17.5" style="2" customWidth="1"/>
-    <col min="5381" max="5633" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5381" max="5633" width="8.875" style="2" customWidth="1"/>
     <col min="5634" max="5634" width="37.5" style="2" customWidth="1"/>
-    <col min="5635" max="5635" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5635" max="5635" width="16.125" style="2" customWidth="1"/>
     <col min="5636" max="5636" width="17.5" style="2" customWidth="1"/>
-    <col min="5637" max="5889" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5637" max="5889" width="8.875" style="2" customWidth="1"/>
     <col min="5890" max="5890" width="37.5" style="2" customWidth="1"/>
-    <col min="5891" max="5891" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5891" max="5891" width="16.125" style="2" customWidth="1"/>
     <col min="5892" max="5892" width="17.5" style="2" customWidth="1"/>
-    <col min="5893" max="6145" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5893" max="6145" width="8.875" style="2" customWidth="1"/>
     <col min="6146" max="6146" width="37.5" style="2" customWidth="1"/>
-    <col min="6147" max="6147" width="16.1640625" style="2" customWidth="1"/>
+    <col min="6147" max="6147" width="16.125" style="2" customWidth="1"/>
     <col min="6148" max="6148" width="17.5" style="2" customWidth="1"/>
-    <col min="6149" max="6401" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6149" max="6401" width="8.875" style="2" customWidth="1"/>
     <col min="6402" max="6402" width="37.5" style="2" customWidth="1"/>
-    <col min="6403" max="6403" width="16.1640625" style="2" customWidth="1"/>
+    <col min="6403" max="6403" width="16.125" style="2" customWidth="1"/>
     <col min="6404" max="6404" width="17.5" style="2" customWidth="1"/>
-    <col min="6405" max="6657" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6405" max="6657" width="8.875" style="2" customWidth="1"/>
     <col min="6658" max="6658" width="37.5" style="2" customWidth="1"/>
-    <col min="6659" max="6659" width="16.1640625" style="2" customWidth="1"/>
+    <col min="6659" max="6659" width="16.125" style="2" customWidth="1"/>
     <col min="6660" max="6660" width="17.5" style="2" customWidth="1"/>
-    <col min="6661" max="6913" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6661" max="6913" width="8.875" style="2" customWidth="1"/>
     <col min="6914" max="6914" width="37.5" style="2" customWidth="1"/>
-    <col min="6915" max="6915" width="16.1640625" style="2" customWidth="1"/>
+    <col min="6915" max="6915" width="16.125" style="2" customWidth="1"/>
     <col min="6916" max="6916" width="17.5" style="2" customWidth="1"/>
-    <col min="6917" max="7169" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6917" max="7169" width="8.875" style="2" customWidth="1"/>
     <col min="7170" max="7170" width="37.5" style="2" customWidth="1"/>
-    <col min="7171" max="7171" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7171" max="7171" width="16.125" style="2" customWidth="1"/>
     <col min="7172" max="7172" width="17.5" style="2" customWidth="1"/>
-    <col min="7173" max="7425" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7173" max="7425" width="8.875" style="2" customWidth="1"/>
     <col min="7426" max="7426" width="37.5" style="2" customWidth="1"/>
-    <col min="7427" max="7427" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7427" max="7427" width="16.125" style="2" customWidth="1"/>
     <col min="7428" max="7428" width="17.5" style="2" customWidth="1"/>
-    <col min="7429" max="7681" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7429" max="7681" width="8.875" style="2" customWidth="1"/>
     <col min="7682" max="7682" width="37.5" style="2" customWidth="1"/>
-    <col min="7683" max="7683" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7683" max="7683" width="16.125" style="2" customWidth="1"/>
     <col min="7684" max="7684" width="17.5" style="2" customWidth="1"/>
-    <col min="7685" max="7937" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7685" max="7937" width="8.875" style="2" customWidth="1"/>
     <col min="7938" max="7938" width="37.5" style="2" customWidth="1"/>
-    <col min="7939" max="7939" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7939" max="7939" width="16.125" style="2" customWidth="1"/>
     <col min="7940" max="7940" width="17.5" style="2" customWidth="1"/>
-    <col min="7941" max="8193" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7941" max="8193" width="8.875" style="2" customWidth="1"/>
     <col min="8194" max="8194" width="37.5" style="2" customWidth="1"/>
-    <col min="8195" max="8195" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8195" max="8195" width="16.125" style="2" customWidth="1"/>
     <col min="8196" max="8196" width="17.5" style="2" customWidth="1"/>
-    <col min="8197" max="8449" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8197" max="8449" width="8.875" style="2" customWidth="1"/>
     <col min="8450" max="8450" width="37.5" style="2" customWidth="1"/>
-    <col min="8451" max="8451" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8451" max="8451" width="16.125" style="2" customWidth="1"/>
     <col min="8452" max="8452" width="17.5" style="2" customWidth="1"/>
-    <col min="8453" max="8705" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8453" max="8705" width="8.875" style="2" customWidth="1"/>
     <col min="8706" max="8706" width="37.5" style="2" customWidth="1"/>
-    <col min="8707" max="8707" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8707" max="8707" width="16.125" style="2" customWidth="1"/>
     <col min="8708" max="8708" width="17.5" style="2" customWidth="1"/>
-    <col min="8709" max="8961" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8709" max="8961" width="8.875" style="2" customWidth="1"/>
     <col min="8962" max="8962" width="37.5" style="2" customWidth="1"/>
-    <col min="8963" max="8963" width="16.1640625" style="2" customWidth="1"/>
+    <col min="8963" max="8963" width="16.125" style="2" customWidth="1"/>
     <col min="8964" max="8964" width="17.5" style="2" customWidth="1"/>
-    <col min="8965" max="9217" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8965" max="9217" width="8.875" style="2" customWidth="1"/>
     <col min="9218" max="9218" width="37.5" style="2" customWidth="1"/>
-    <col min="9219" max="9219" width="16.1640625" style="2" customWidth="1"/>
+    <col min="9219" max="9219" width="16.125" style="2" customWidth="1"/>
     <col min="9220" max="9220" width="17.5" style="2" customWidth="1"/>
-    <col min="9221" max="9473" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9221" max="9473" width="8.875" style="2" customWidth="1"/>
     <col min="9474" max="9474" width="37.5" style="2" customWidth="1"/>
-    <col min="9475" max="9475" width="16.1640625" style="2" customWidth="1"/>
+    <col min="9475" max="9475" width="16.125" style="2" customWidth="1"/>
     <col min="9476" max="9476" width="17.5" style="2" customWidth="1"/>
-    <col min="9477" max="9729" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9477" max="9729" width="8.875" style="2" customWidth="1"/>
     <col min="9730" max="9730" width="37.5" style="2" customWidth="1"/>
-    <col min="9731" max="9731" width="16.1640625" style="2" customWidth="1"/>
+    <col min="9731" max="9731" width="16.125" style="2" customWidth="1"/>
     <col min="9732" max="9732" width="17.5" style="2" customWidth="1"/>
-    <col min="9733" max="9985" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9733" max="9985" width="8.875" style="2" customWidth="1"/>
     <col min="9986" max="9986" width="37.5" style="2" customWidth="1"/>
-    <col min="9987" max="9987" width="16.1640625" style="2" customWidth="1"/>
+    <col min="9987" max="9987" width="16.125" style="2" customWidth="1"/>
     <col min="9988" max="9988" width="17.5" style="2" customWidth="1"/>
-    <col min="9989" max="10241" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9989" max="10241" width="8.875" style="2" customWidth="1"/>
     <col min="10242" max="10242" width="37.5" style="2" customWidth="1"/>
-    <col min="10243" max="10243" width="16.1640625" style="2" customWidth="1"/>
+    <col min="10243" max="10243" width="16.125" style="2" customWidth="1"/>
     <col min="10244" max="10244" width="17.5" style="2" customWidth="1"/>
-    <col min="10245" max="10497" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10245" max="10497" width="8.875" style="2" customWidth="1"/>
     <col min="10498" max="10498" width="37.5" style="2" customWidth="1"/>
-    <col min="10499" max="10499" width="16.1640625" style="2" customWidth="1"/>
+    <col min="10499" max="10499" width="16.125" style="2" customWidth="1"/>
     <col min="10500" max="10500" width="17.5" style="2" customWidth="1"/>
-    <col min="10501" max="10753" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10501" max="10753" width="8.875" style="2" customWidth="1"/>
     <col min="10754" max="10754" width="37.5" style="2" customWidth="1"/>
-    <col min="10755" max="10755" width="16.1640625" style="2" customWidth="1"/>
+    <col min="10755" max="10755" width="16.125" style="2" customWidth="1"/>
     <col min="10756" max="10756" width="17.5" style="2" customWidth="1"/>
-    <col min="10757" max="11009" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10757" max="11009" width="8.875" style="2" customWidth="1"/>
     <col min="11010" max="11010" width="37.5" style="2" customWidth="1"/>
-    <col min="11011" max="11011" width="16.1640625" style="2" customWidth="1"/>
+    <col min="11011" max="11011" width="16.125" style="2" customWidth="1"/>
     <col min="11012" max="11012" width="17.5" style="2" customWidth="1"/>
-    <col min="11013" max="11265" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11013" max="11265" width="8.875" style="2" customWidth="1"/>
     <col min="11266" max="11266" width="37.5" style="2" customWidth="1"/>
-    <col min="11267" max="11267" width="16.1640625" style="2" customWidth="1"/>
+    <col min="11267" max="11267" width="16.125" style="2" customWidth="1"/>
     <col min="11268" max="11268" width="17.5" style="2" customWidth="1"/>
-    <col min="11269" max="11521" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11269" max="11521" width="8.875" style="2" customWidth="1"/>
     <col min="11522" max="11522" width="37.5" style="2" customWidth="1"/>
-    <col min="11523" max="11523" width="16.1640625" style="2" customWidth="1"/>
+    <col min="11523" max="11523" width="16.125" style="2" customWidth="1"/>
     <col min="11524" max="11524" width="17.5" style="2" customWidth="1"/>
-    <col min="11525" max="11777" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11525" max="11777" width="8.875" style="2" customWidth="1"/>
     <col min="11778" max="11778" width="37.5" style="2" customWidth="1"/>
-    <col min="11779" max="11779" width="16.1640625" style="2" customWidth="1"/>
+    <col min="11779" max="11779" width="16.125" style="2" customWidth="1"/>
     <col min="11780" max="11780" width="17.5" style="2" customWidth="1"/>
-    <col min="11781" max="12033" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11781" max="12033" width="8.875" style="2" customWidth="1"/>
     <col min="12034" max="12034" width="37.5" style="2" customWidth="1"/>
-    <col min="12035" max="12035" width="16.1640625" style="2" customWidth="1"/>
+    <col min="12035" max="12035" width="16.125" style="2" customWidth="1"/>
     <col min="12036" max="12036" width="17.5" style="2" customWidth="1"/>
-    <col min="12037" max="12289" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12037" max="12289" width="8.875" style="2" customWidth="1"/>
     <col min="12290" max="12290" width="37.5" style="2" customWidth="1"/>
-    <col min="12291" max="12291" width="16.1640625" style="2" customWidth="1"/>
+    <col min="12291" max="12291" width="16.125" style="2" customWidth="1"/>
     <col min="12292" max="12292" width="17.5" style="2" customWidth="1"/>
-    <col min="12293" max="12545" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12293" max="12545" width="8.875" style="2" customWidth="1"/>
     <col min="12546" max="12546" width="37.5" style="2" customWidth="1"/>
-    <col min="12547" max="12547" width="16.1640625" style="2" customWidth="1"/>
+    <col min="12547" max="12547" width="16.125" style="2" customWidth="1"/>
     <col min="12548" max="12548" width="17.5" style="2" customWidth="1"/>
-    <col min="12549" max="12801" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12549" max="12801" width="8.875" style="2" customWidth="1"/>
     <col min="12802" max="12802" width="37.5" style="2" customWidth="1"/>
-    <col min="12803" max="12803" width="16.1640625" style="2" customWidth="1"/>
+    <col min="12803" max="12803" width="16.125" style="2" customWidth="1"/>
     <col min="12804" max="12804" width="17.5" style="2" customWidth="1"/>
-    <col min="12805" max="13057" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12805" max="13057" width="8.875" style="2" customWidth="1"/>
     <col min="13058" max="13058" width="37.5" style="2" customWidth="1"/>
-    <col min="13059" max="13059" width="16.1640625" style="2" customWidth="1"/>
+    <col min="13059" max="13059" width="16.125" style="2" customWidth="1"/>
     <col min="13060" max="13060" width="17.5" style="2" customWidth="1"/>
-    <col min="13061" max="13313" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13061" max="13313" width="8.875" style="2" customWidth="1"/>
     <col min="13314" max="13314" width="37.5" style="2" customWidth="1"/>
-    <col min="13315" max="13315" width="16.1640625" style="2" customWidth="1"/>
+    <col min="13315" max="13315" width="16.125" style="2" customWidth="1"/>
     <col min="13316" max="13316" width="17.5" style="2" customWidth="1"/>
-    <col min="13317" max="13569" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13317" max="13569" width="8.875" style="2" customWidth="1"/>
     <col min="13570" max="13570" width="37.5" style="2" customWidth="1"/>
-    <col min="13571" max="13571" width="16.1640625" style="2" customWidth="1"/>
+    <col min="13571" max="13571" width="16.125" style="2" customWidth="1"/>
     <col min="13572" max="13572" width="17.5" style="2" customWidth="1"/>
-    <col min="13573" max="13825" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13573" max="13825" width="8.875" style="2" customWidth="1"/>
     <col min="13826" max="13826" width="37.5" style="2" customWidth="1"/>
-    <col min="13827" max="13827" width="16.1640625" style="2" customWidth="1"/>
+    <col min="13827" max="13827" width="16.125" style="2" customWidth="1"/>
     <col min="13828" max="13828" width="17.5" style="2" customWidth="1"/>
-    <col min="13829" max="14081" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13829" max="14081" width="8.875" style="2" customWidth="1"/>
     <col min="14082" max="14082" width="37.5" style="2" customWidth="1"/>
-    <col min="14083" max="14083" width="16.1640625" style="2" customWidth="1"/>
+    <col min="14083" max="14083" width="16.125" style="2" customWidth="1"/>
     <col min="14084" max="14084" width="17.5" style="2" customWidth="1"/>
-    <col min="14085" max="14337" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14085" max="14337" width="8.875" style="2" customWidth="1"/>
     <col min="14338" max="14338" width="37.5" style="2" customWidth="1"/>
-    <col min="14339" max="14339" width="16.1640625" style="2" customWidth="1"/>
+    <col min="14339" max="14339" width="16.125" style="2" customWidth="1"/>
     <col min="14340" max="14340" width="17.5" style="2" customWidth="1"/>
-    <col min="14341" max="14593" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14341" max="14593" width="8.875" style="2" customWidth="1"/>
     <col min="14594" max="14594" width="37.5" style="2" customWidth="1"/>
-    <col min="14595" max="14595" width="16.1640625" style="2" customWidth="1"/>
+    <col min="14595" max="14595" width="16.125" style="2" customWidth="1"/>
     <col min="14596" max="14596" width="17.5" style="2" customWidth="1"/>
-    <col min="14597" max="14849" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14597" max="14849" width="8.875" style="2" customWidth="1"/>
     <col min="14850" max="14850" width="37.5" style="2" customWidth="1"/>
-    <col min="14851" max="14851" width="16.1640625" style="2" customWidth="1"/>
+    <col min="14851" max="14851" width="16.125" style="2" customWidth="1"/>
     <col min="14852" max="14852" width="17.5" style="2" customWidth="1"/>
-    <col min="14853" max="15105" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14853" max="15105" width="8.875" style="2" customWidth="1"/>
     <col min="15106" max="15106" width="37.5" style="2" customWidth="1"/>
-    <col min="15107" max="15107" width="16.1640625" style="2" customWidth="1"/>
+    <col min="15107" max="15107" width="16.125" style="2" customWidth="1"/>
     <col min="15108" max="15108" width="17.5" style="2" customWidth="1"/>
-    <col min="15109" max="15361" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15109" max="15361" width="8.875" style="2" customWidth="1"/>
     <col min="15362" max="15362" width="37.5" style="2" customWidth="1"/>
-    <col min="15363" max="15363" width="16.1640625" style="2" customWidth="1"/>
+    <col min="15363" max="15363" width="16.125" style="2" customWidth="1"/>
     <col min="15364" max="15364" width="17.5" style="2" customWidth="1"/>
-    <col min="15365" max="15617" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15365" max="15617" width="8.875" style="2" customWidth="1"/>
     <col min="15618" max="15618" width="37.5" style="2" customWidth="1"/>
-    <col min="15619" max="15619" width="16.1640625" style="2" customWidth="1"/>
+    <col min="15619" max="15619" width="16.125" style="2" customWidth="1"/>
     <col min="15620" max="15620" width="17.5" style="2" customWidth="1"/>
-    <col min="15621" max="15873" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15621" max="15873" width="8.875" style="2" customWidth="1"/>
     <col min="15874" max="15874" width="37.5" style="2" customWidth="1"/>
-    <col min="15875" max="15875" width="16.1640625" style="2" customWidth="1"/>
+    <col min="15875" max="15875" width="16.125" style="2" customWidth="1"/>
     <col min="15876" max="15876" width="17.5" style="2" customWidth="1"/>
-    <col min="15877" max="16129" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15877" max="16129" width="8.875" style="2" customWidth="1"/>
     <col min="16130" max="16130" width="37.5" style="2" customWidth="1"/>
-    <col min="16131" max="16131" width="16.1640625" style="2" customWidth="1"/>
+    <col min="16131" max="16131" width="16.125" style="2" customWidth="1"/>
     <col min="16132" max="16132" width="17.5" style="2" customWidth="1"/>
-    <col min="16133" max="16384" width="8.83203125" style="2" customWidth="1"/>
+    <col min="16133" max="16384" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,216 +798,217 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{780136A3-9D3E-1643-B9D1-5978C8654936}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{544F2240-BA21-7F48-ABE0-B1D78501E1E4}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{AAA422E6-DA04-1A48-9710-55FB3D6D100D}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B506B1-9246-E14E-A271-AC0D672B2188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
-    <col min="3" max="257" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3" max="257" width="8.875" style="2" customWidth="1"/>
     <col min="258" max="258" width="60" style="2" customWidth="1"/>
-    <col min="259" max="513" width="8.83203125" style="2" customWidth="1"/>
+    <col min="259" max="513" width="8.875" style="2" customWidth="1"/>
     <col min="514" max="514" width="60" style="2" customWidth="1"/>
-    <col min="515" max="769" width="8.83203125" style="2" customWidth="1"/>
+    <col min="515" max="769" width="8.875" style="2" customWidth="1"/>
     <col min="770" max="770" width="60" style="2" customWidth="1"/>
-    <col min="771" max="1025" width="8.83203125" style="2" customWidth="1"/>
+    <col min="771" max="1025" width="8.875" style="2" customWidth="1"/>
     <col min="1026" max="1026" width="60" style="2" customWidth="1"/>
-    <col min="1027" max="1281" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1027" max="1281" width="8.875" style="2" customWidth="1"/>
     <col min="1282" max="1282" width="60" style="2" customWidth="1"/>
-    <col min="1283" max="1537" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1283" max="1537" width="8.875" style="2" customWidth="1"/>
     <col min="1538" max="1538" width="60" style="2" customWidth="1"/>
-    <col min="1539" max="1793" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1539" max="1793" width="8.875" style="2" customWidth="1"/>
     <col min="1794" max="1794" width="60" style="2" customWidth="1"/>
-    <col min="1795" max="2049" width="8.83203125" style="2" customWidth="1"/>
+    <col min="1795" max="2049" width="8.875" style="2" customWidth="1"/>
     <col min="2050" max="2050" width="60" style="2" customWidth="1"/>
-    <col min="2051" max="2305" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2051" max="2305" width="8.875" style="2" customWidth="1"/>
     <col min="2306" max="2306" width="60" style="2" customWidth="1"/>
-    <col min="2307" max="2561" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2307" max="2561" width="8.875" style="2" customWidth="1"/>
     <col min="2562" max="2562" width="60" style="2" customWidth="1"/>
-    <col min="2563" max="2817" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2563" max="2817" width="8.875" style="2" customWidth="1"/>
     <col min="2818" max="2818" width="60" style="2" customWidth="1"/>
-    <col min="2819" max="3073" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2819" max="3073" width="8.875" style="2" customWidth="1"/>
     <col min="3074" max="3074" width="60" style="2" customWidth="1"/>
-    <col min="3075" max="3329" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3075" max="3329" width="8.875" style="2" customWidth="1"/>
     <col min="3330" max="3330" width="60" style="2" customWidth="1"/>
-    <col min="3331" max="3585" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3331" max="3585" width="8.875" style="2" customWidth="1"/>
     <col min="3586" max="3586" width="60" style="2" customWidth="1"/>
-    <col min="3587" max="3841" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3587" max="3841" width="8.875" style="2" customWidth="1"/>
     <col min="3842" max="3842" width="60" style="2" customWidth="1"/>
-    <col min="3843" max="4097" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3843" max="4097" width="8.875" style="2" customWidth="1"/>
     <col min="4098" max="4098" width="60" style="2" customWidth="1"/>
-    <col min="4099" max="4353" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4099" max="4353" width="8.875" style="2" customWidth="1"/>
     <col min="4354" max="4354" width="60" style="2" customWidth="1"/>
-    <col min="4355" max="4609" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4355" max="4609" width="8.875" style="2" customWidth="1"/>
     <col min="4610" max="4610" width="60" style="2" customWidth="1"/>
-    <col min="4611" max="4865" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4611" max="4865" width="8.875" style="2" customWidth="1"/>
     <col min="4866" max="4866" width="60" style="2" customWidth="1"/>
-    <col min="4867" max="5121" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4867" max="5121" width="8.875" style="2" customWidth="1"/>
     <col min="5122" max="5122" width="60" style="2" customWidth="1"/>
-    <col min="5123" max="5377" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5123" max="5377" width="8.875" style="2" customWidth="1"/>
     <col min="5378" max="5378" width="60" style="2" customWidth="1"/>
-    <col min="5379" max="5633" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5379" max="5633" width="8.875" style="2" customWidth="1"/>
     <col min="5634" max="5634" width="60" style="2" customWidth="1"/>
-    <col min="5635" max="5889" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5635" max="5889" width="8.875" style="2" customWidth="1"/>
     <col min="5890" max="5890" width="60" style="2" customWidth="1"/>
-    <col min="5891" max="6145" width="8.83203125" style="2" customWidth="1"/>
+    <col min="5891" max="6145" width="8.875" style="2" customWidth="1"/>
     <col min="6146" max="6146" width="60" style="2" customWidth="1"/>
-    <col min="6147" max="6401" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6147" max="6401" width="8.875" style="2" customWidth="1"/>
     <col min="6402" max="6402" width="60" style="2" customWidth="1"/>
-    <col min="6403" max="6657" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6403" max="6657" width="8.875" style="2" customWidth="1"/>
     <col min="6658" max="6658" width="60" style="2" customWidth="1"/>
-    <col min="6659" max="6913" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6659" max="6913" width="8.875" style="2" customWidth="1"/>
     <col min="6914" max="6914" width="60" style="2" customWidth="1"/>
-    <col min="6915" max="7169" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6915" max="7169" width="8.875" style="2" customWidth="1"/>
     <col min="7170" max="7170" width="60" style="2" customWidth="1"/>
-    <col min="7171" max="7425" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7171" max="7425" width="8.875" style="2" customWidth="1"/>
     <col min="7426" max="7426" width="60" style="2" customWidth="1"/>
-    <col min="7427" max="7681" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7427" max="7681" width="8.875" style="2" customWidth="1"/>
     <col min="7682" max="7682" width="60" style="2" customWidth="1"/>
-    <col min="7683" max="7937" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7683" max="7937" width="8.875" style="2" customWidth="1"/>
     <col min="7938" max="7938" width="60" style="2" customWidth="1"/>
-    <col min="7939" max="8193" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7939" max="8193" width="8.875" style="2" customWidth="1"/>
     <col min="8194" max="8194" width="60" style="2" customWidth="1"/>
-    <col min="8195" max="8449" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8195" max="8449" width="8.875" style="2" customWidth="1"/>
     <col min="8450" max="8450" width="60" style="2" customWidth="1"/>
-    <col min="8451" max="8705" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8451" max="8705" width="8.875" style="2" customWidth="1"/>
     <col min="8706" max="8706" width="60" style="2" customWidth="1"/>
-    <col min="8707" max="8961" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8707" max="8961" width="8.875" style="2" customWidth="1"/>
     <col min="8962" max="8962" width="60" style="2" customWidth="1"/>
-    <col min="8963" max="9217" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8963" max="9217" width="8.875" style="2" customWidth="1"/>
     <col min="9218" max="9218" width="60" style="2" customWidth="1"/>
-    <col min="9219" max="9473" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9219" max="9473" width="8.875" style="2" customWidth="1"/>
     <col min="9474" max="9474" width="60" style="2" customWidth="1"/>
-    <col min="9475" max="9729" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9475" max="9729" width="8.875" style="2" customWidth="1"/>
     <col min="9730" max="9730" width="60" style="2" customWidth="1"/>
-    <col min="9731" max="9985" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9731" max="9985" width="8.875" style="2" customWidth="1"/>
     <col min="9986" max="9986" width="60" style="2" customWidth="1"/>
-    <col min="9987" max="10241" width="8.83203125" style="2" customWidth="1"/>
+    <col min="9987" max="10241" width="8.875" style="2" customWidth="1"/>
     <col min="10242" max="10242" width="60" style="2" customWidth="1"/>
-    <col min="10243" max="10497" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10243" max="10497" width="8.875" style="2" customWidth="1"/>
     <col min="10498" max="10498" width="60" style="2" customWidth="1"/>
-    <col min="10499" max="10753" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10499" max="10753" width="8.875" style="2" customWidth="1"/>
     <col min="10754" max="10754" width="60" style="2" customWidth="1"/>
-    <col min="10755" max="11009" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10755" max="11009" width="8.875" style="2" customWidth="1"/>
     <col min="11010" max="11010" width="60" style="2" customWidth="1"/>
-    <col min="11011" max="11265" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11011" max="11265" width="8.875" style="2" customWidth="1"/>
     <col min="11266" max="11266" width="60" style="2" customWidth="1"/>
-    <col min="11267" max="11521" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11267" max="11521" width="8.875" style="2" customWidth="1"/>
     <col min="11522" max="11522" width="60" style="2" customWidth="1"/>
-    <col min="11523" max="11777" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11523" max="11777" width="8.875" style="2" customWidth="1"/>
     <col min="11778" max="11778" width="60" style="2" customWidth="1"/>
-    <col min="11779" max="12033" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11779" max="12033" width="8.875" style="2" customWidth="1"/>
     <col min="12034" max="12034" width="60" style="2" customWidth="1"/>
-    <col min="12035" max="12289" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12035" max="12289" width="8.875" style="2" customWidth="1"/>
     <col min="12290" max="12290" width="60" style="2" customWidth="1"/>
-    <col min="12291" max="12545" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12291" max="12545" width="8.875" style="2" customWidth="1"/>
     <col min="12546" max="12546" width="60" style="2" customWidth="1"/>
-    <col min="12547" max="12801" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12547" max="12801" width="8.875" style="2" customWidth="1"/>
     <col min="12802" max="12802" width="60" style="2" customWidth="1"/>
-    <col min="12803" max="13057" width="8.83203125" style="2" customWidth="1"/>
+    <col min="12803" max="13057" width="8.875" style="2" customWidth="1"/>
     <col min="13058" max="13058" width="60" style="2" customWidth="1"/>
-    <col min="13059" max="13313" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13059" max="13313" width="8.875" style="2" customWidth="1"/>
     <col min="13314" max="13314" width="60" style="2" customWidth="1"/>
-    <col min="13315" max="13569" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13315" max="13569" width="8.875" style="2" customWidth="1"/>
     <col min="13570" max="13570" width="60" style="2" customWidth="1"/>
-    <col min="13571" max="13825" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13571" max="13825" width="8.875" style="2" customWidth="1"/>
     <col min="13826" max="13826" width="60" style="2" customWidth="1"/>
-    <col min="13827" max="14081" width="8.83203125" style="2" customWidth="1"/>
+    <col min="13827" max="14081" width="8.875" style="2" customWidth="1"/>
     <col min="14082" max="14082" width="60" style="2" customWidth="1"/>
-    <col min="14083" max="14337" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14083" max="14337" width="8.875" style="2" customWidth="1"/>
     <col min="14338" max="14338" width="60" style="2" customWidth="1"/>
-    <col min="14339" max="14593" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14339" max="14593" width="8.875" style="2" customWidth="1"/>
     <col min="14594" max="14594" width="60" style="2" customWidth="1"/>
-    <col min="14595" max="14849" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14595" max="14849" width="8.875" style="2" customWidth="1"/>
     <col min="14850" max="14850" width="60" style="2" customWidth="1"/>
-    <col min="14851" max="15105" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14851" max="15105" width="8.875" style="2" customWidth="1"/>
     <col min="15106" max="15106" width="60" style="2" customWidth="1"/>
-    <col min="15107" max="15361" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15107" max="15361" width="8.875" style="2" customWidth="1"/>
     <col min="15362" max="15362" width="60" style="2" customWidth="1"/>
-    <col min="15363" max="15617" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15363" max="15617" width="8.875" style="2" customWidth="1"/>
     <col min="15618" max="15618" width="60" style="2" customWidth="1"/>
-    <col min="15619" max="15873" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15619" max="15873" width="8.875" style="2" customWidth="1"/>
     <col min="15874" max="15874" width="60" style="2" customWidth="1"/>
-    <col min="15875" max="16129" width="8.83203125" style="2" customWidth="1"/>
+    <col min="15875" max="16129" width="8.875" style="2" customWidth="1"/>
     <col min="16130" max="16130" width="60" style="2" customWidth="1"/>
-    <col min="16131" max="16384" width="8.83203125" style="2" customWidth="1"/>
+    <col min="16131" max="16384" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1021,73 +1018,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7CACF-D500-EE41-896D-389191BF643A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
